--- a/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(改トップ画面から申請、申請一覧画面) .xlsx
+++ b/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(改トップ画面から申請、申請一覧画面) .xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,24 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30885" yWindow="0" windowWidth="17280" windowHeight="12480" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="30885" yWindow="0" windowWidth="17280" windowHeight="12480" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
     <sheet name="index.html" sheetId="2" r:id="rId2"/>
     <sheet name="attendance.html" sheetId="3" r:id="rId3"/>
     <sheet name="attendanceCreate.html" sheetId="4" r:id="rId4"/>
-    <sheet name="attendanceEdit.html" sheetId="5" r:id="rId5"/>
-    <sheet name="apply.html" sheetId="6" r:id="rId6"/>
-    <sheet name="applyview.html " sheetId="8" r:id="rId7"/>
+    <sheet name="apply.html" sheetId="6" r:id="rId5"/>
+    <sheet name="applyview.html " sheetId="8" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'applyview.html '!$A$1:$S$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'applyview.html '!$A$1:$S$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">attendanceCreate.html!$A$1:$K$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">attendanceEdit.html!$A$1:$K$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">index.html!$A$1:$R$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
@@ -49,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -420,13 +418,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ラジオボタン</t>
+    <t>出勤</t>
+    <rPh sb="0" eb="2">
+      <t>シュッキン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出勤</t>
+    <t>出勤●　休日〇</t>
     <rPh sb="0" eb="2">
       <t>シュッキン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キュウジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠ステータス</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ture=出勤、false=休日</t>
+    <rPh sb="5" eb="7">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キュウジツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -580,7 +609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -602,6 +631,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,15 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -631,6 +660,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,7 +711,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1063"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1080"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1761,7 +1793,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4671010" y="2798367"/>
-              <a:ext cx="358140" cy="281940"/>
+              <a:ext cx="323398" cy="281940"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1976,8 +2008,8 @@
           <xdr:rowOff>1905</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>917121</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1066800</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>201930</xdr:rowOff>
         </xdr:to>
@@ -1994,7 +2026,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]変更履歴!$A$1:$E$2" spid="_x0000_s3083"/>
+                  <a14:cameraTool cellRange="[1]変更履歴!$A$1:$E$2" spid="_x0000_s3100"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2140,15 +2172,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>19867</xdr:colOff>
+      <xdr:colOff>169546</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>2807</xdr:rowOff>
+      <xdr:rowOff>30022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
+      <xdr:colOff>673554</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10888</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2163,7 +2195,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2477317" y="2850782"/>
+          <a:off x="2877367" y="2955558"/>
           <a:ext cx="504008" cy="225794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2389,13 +2421,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>48442</xdr:colOff>
+      <xdr:colOff>21228</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>12332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>525236</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -2412,8 +2444,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4534717" y="2860307"/>
-          <a:ext cx="504008" cy="225794"/>
+          <a:off x="6158049" y="2937868"/>
+          <a:ext cx="504008" cy="232597"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2950,30 +2982,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE1A7A66-3DAC-465A-ADF5-8C43B901AB52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2981,13 +3008,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="638175" y="838200"/>
-          <a:ext cx="6496050" cy="5353050"/>
+          <a:off x="3156857" y="5129893"/>
+          <a:ext cx="504008" cy="225794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
@@ -3015,163 +3046,40 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>1905</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>990332</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>208638</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="3" name="図 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABCC05D8-B0F5-4F23-9DD9-038185BD9BE1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]変更履歴!$A$1:$E$2" spid="_x0000_s4107"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="1905"/>
-              <a:ext cx="6152882" cy="673458"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>17612</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>230716</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2782044" cy="435697"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{181243AF-7801-476F-9A7D-4755F254AAC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2475062" y="1411816"/>
-          <a:ext cx="2782044" cy="435697"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>YYYY</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>年</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>MM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>月の勤怠編集画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19867</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2807</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
@@ -3182,7 +3090,171 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2477317" y="2850782"/>
+          <a:off x="3837214" y="5129893"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4517571" y="5129893"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5197929" y="5129893"/>
           <a:ext cx="504008" cy="225794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3241,19 +3313,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>29392</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2807</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
@@ -3264,7 +3336,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3163117" y="2850782"/>
+          <a:off x="3156857" y="4884964"/>
           <a:ext cx="504008" cy="225794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3323,19 +3395,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>57967</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>231407</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
@@ -3346,7 +3418,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3867967" y="2841257"/>
+          <a:off x="3837214" y="4884964"/>
           <a:ext cx="504008" cy="225794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3405,19 +3477,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>48442</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12332</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
@@ -3428,7 +3500,253 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4534717" y="2860307"/>
+          <a:off x="4517571" y="4884964"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5197929" y="4884964"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3156857" y="4640036"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3837214" y="4640036"/>
           <a:ext cx="504008" cy="225794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3487,19 +3805,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>617113</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>147569</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1059825</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>160985</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
@@ -3510,8 +3828,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5103388" y="5614919"/>
-          <a:ext cx="1118987" cy="489666"/>
+          <a:off x="4517571" y="4640036"/>
+          <a:ext cx="504008" cy="225794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3544,18 +3862,1089 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>変更する</a:t>
+            <a:t>00:00</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5197929" y="4640036"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3156857" y="4395107"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3837214" y="4395107"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4517571" y="4395107"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5197929" y="4395107"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3156857" y="4150179"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3837214" y="4150179"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4517571" y="4150179"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5197929" y="4150179"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5197929" y="3660321"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5197929" y="3905250"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>225794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5197929" y="3170464"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2722</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>506730</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>242122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5200651" y="3431721"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3564,7 +4953,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3955,7 +5344,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4033,8 +5422,8 @@
           <xdr:rowOff>1905</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>990332</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>896423</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>208638</xdr:rowOff>
         </xdr:to>
@@ -4051,7 +5440,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]変更履歴!$A$1:$E$2" spid="_x0000_s7179"/>
+                  <a14:cameraTool cellRange="[1]変更履歴!$A$1:$E$2" spid="_x0000_s7196"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4160,334 +5549,6 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19867</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2807</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2477317" y="2850782"/>
-          <a:ext cx="504008" cy="225794"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>00:00</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>29392</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2807</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3163117" y="2850782"/>
-          <a:ext cx="504008" cy="225794"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>00:00</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>57967</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>231407</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3867967" y="2841257"/>
-          <a:ext cx="504008" cy="225794"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>00:00</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>48442</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12332</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4534717" y="2860307"/>
-          <a:ext cx="504008" cy="225794"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>00:00</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>415881</xdr:colOff>
       <xdr:row>23</xdr:row>
@@ -4579,23 +5640,22 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="D12:J23" totalsRowShown="0">
-  <autoFilter ref="D12:J23"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="D12:I23" totalsRowShown="0">
+  <autoFilter ref="D12:I23"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="日付"/>
     <tableColumn id="7" name="勤怠ステータス（true:出勤、false:休日）"/>
     <tableColumn id="2" name="出勤時間"/>
     <tableColumn id="3" name="退勤時間"/>
     <tableColumn id="4" name="休憩開始時間"/>
     <tableColumn id="5" name="休憩終了時間"/>
-    <tableColumn id="6" name="列6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4617,51 +5677,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル14" displayName="テーブル14" ref="D12:I23" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="テーブル146" displayName="テーブル146" ref="D12:I23" totalsRowShown="0">
   <autoFilter ref="D12:I23"/>
   <tableColumns count="6">
     <tableColumn id="1" name="日付"/>
+    <tableColumn id="6" name="勤怠ステータス"/>
     <tableColumn id="2" name="出勤時間"/>
     <tableColumn id="3" name="退勤時間"/>
     <tableColumn id="4" name="休憩開始時間"/>
     <tableColumn id="5" name="休憩終了時間"/>
-    <tableColumn id="6" name="列6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル25" displayName="テーブル25" ref="D28:I33" totalsRowShown="0">
-  <autoFilter ref="D28:I33"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="機能"/>
-    <tableColumn id="2" name="場所"/>
-    <tableColumn id="3" name="そのあと"/>
-    <tableColumn id="4" name="列4"/>
-    <tableColumn id="5" name="列5"/>
-    <tableColumn id="6" name="列6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="テーブル146" displayName="テーブル146" ref="D12:I23" totalsRowShown="0">
-  <autoFilter ref="D12:I23"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="日付"/>
-    <tableColumn id="2" name="出勤時間"/>
-    <tableColumn id="3" name="退勤時間"/>
-    <tableColumn id="4" name="休憩開始時間"/>
-    <tableColumn id="5" name="休憩終了時間"/>
-    <tableColumn id="6" name="列6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="テーブル257" displayName="テーブル257" ref="D28:I33" totalsRowShown="0">
   <autoFilter ref="D28:I33"/>
   <tableColumns count="6">
@@ -5025,255 +6055,285 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -5281,36 +6341,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5371,7 +6401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -5383,21 +6413,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:J31"/>
+  <dimension ref="C1:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="8" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="7.125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
     <col min="9" max="9" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
         <v>15</v>
       </c>
@@ -5416,32 +6452,26 @@
       <c r="I12" t="s">
         <v>19</v>
       </c>
-      <c r="J12" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D16">
         <v>4</v>
       </c>
@@ -5451,7 +6481,7 @@
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.4">
@@ -5521,120 +6551,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:I29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="71" zoomScaleNormal="100" zoomScaleSheetLayoutView="71" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="I25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -5646,50 +6566,79 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:I29"/>
+  <dimension ref="C1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="71" zoomScaleNormal="100" zoomScaleSheetLayoutView="71" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="71" zoomScaleNormal="100" zoomScaleSheetLayoutView="71" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="8.875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>18</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>19</v>
-      </c>
-      <c r="I12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0.54166666666666663</v>
+      </c>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D14">
         <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.4">
